--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="114">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T16:45:11+00:00</t>
+    <t>2024-06-27T06:41:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,6 +72,12 @@
     <t>Example Publisher (http://example.org/example-publisher)</t>
   </si>
   <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -235,9 +241,6 @@
   </si>
   <si>
     <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>0</t>
@@ -496,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -596,21 +599,21 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -658,6 +661,14 @@
       </c>
       <c r="B20" t="s" s="2">
         <v>36</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -716,735 +727,735 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
         <v>3</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="110">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T06:41:39+00:00</t>
+    <t>2024-07-08T06:24:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -129,7 +129,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:http://example.org/StructureDefinition/MOPEDAccount#Account</t>
   </si>
   <si>
     <t>ID</t>
@@ -338,11 +338,13 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Code für den MOPED Workflowstatus</t>
+  </si>
+  <si>
+    <t>http://tbd.at/moped-ext-workflow-status</t>
   </si>
   <si>
     <t xml:space="preserve">ext-1
@@ -351,21 +353,6 @@
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valueCode</t>
-  </si>
-  <si>
-    <t>valueCode</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Code für den MOPED Workflowstatus</t>
-  </si>
-  <si>
-    <t>http://tbd.at/moped-ext-workflow-status</t>
   </si>
 </sst>
 </file>
@@ -678,7 +665,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -687,7 +674,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="28.46875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1313,26 +1300,28 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AC6" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="AD6" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>101</v>
@@ -1344,117 +1333,12 @@
         <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AK7" t="s" s="2">
         <v>100</v>
       </c>
     </row>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T06:24:07+00:00</t>
+    <t>2024-07-11T13:07:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T13:07:17+00:00</t>
+    <t>2024-07-15T09:40:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T09:40:45+00:00</t>
+    <t>2024-07-16T10:33:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -344,7 +344,7 @@
     <t>Code für den MOPED Workflowstatus</t>
   </si>
   <si>
-    <t>http://tbd.at/moped-ext-workflow-status</t>
+    <t>http://example.org/ValueSet/moped-WorkflowStatus-valueset</t>
   </si>
   <si>
     <t xml:space="preserve">ext-1
@@ -699,7 +699,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="34.94140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="37.875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.4921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-16T10:33:51+00:00</t>
+    <t>2024-07-19T05:43:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-19T05:43:00+00:00</t>
+    <t>2024-07-31T11:45:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-31T11:45:17+00:00</t>
+    <t>2024-08-01T08:50:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-01T08:50:18+00:00</t>
+    <t>2024-08-01T13:41:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-01T13:41:58+00:00</t>
+    <t>2024-08-06T11:00:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T11:00:40+00:00</t>
+    <t>2024-08-06T12:10:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T12:10:21+00:00</t>
+    <t>2024-08-07T21:51:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-07T21:51:51+00:00</t>
+    <t>2024-09-03T06:35:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T06:35:21+00:00</t>
+    <t>2024-09-03T06:46:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T06:46:02+00:00</t>
+    <t>2024-09-05T05:58:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T05:58:31+00:00</t>
+    <t>2024-09-10T13:26:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T13:26:38+00:00</t>
+    <t>2024-09-11T18:39:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-11T18:39:22+00:00</t>
+    <t>2024-09-12T09:13:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T09:13:24+00:00</t>
+    <t>2024-09-12T16:58:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T16:58:21+00:00</t>
+    <t>2024-09-17T12:39:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T12:39:21+00:00</t>
+    <t>2024-09-17T13:24:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T13:24:04+00:00</t>
+    <t>2024-09-17T13:52:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T13:52:39+00:00</t>
+    <t>2024-09-17T14:02:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:02:22+00:00</t>
+    <t>2024-09-17T14:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:11:23+00:00</t>
+    <t>2024-09-17T14:20:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:20:09+00:00</t>
+    <t>2024-09-17T14:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:52:20+00:00</t>
+    <t>2024-09-17T17:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T17:35:28+00:00</t>
+    <t>2024-09-17T18:06:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T18:06:53+00:00</t>
+    <t>2024-09-17T18:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T18:22:57+00:00</t>
+    <t>2024-09-17T20:06:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T20:06:55+00:00</t>
+    <t>2024-09-17T20:22:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T20:22:56+00:00</t>
+    <t>2024-09-18T05:27:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T05:27:51+00:00</t>
+    <t>2024-09-19T11:50:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-19T11:50:53+00:00</t>
+    <t>2024-09-19T12:04:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-19T12:04:20+00:00</t>
+    <t>2024-09-22T15:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-22T15:40:07+00:00</t>
+    <t>2024-09-23T07:19:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T07:19:12+00:00</t>
+    <t>2024-09-23T11:09:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T11:09:48+00:00</t>
+    <t>2024-09-23T11:29:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T11:29:53+00:00</t>
+    <t>2024-09-23T11:42:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T11:42:54+00:00</t>
+    <t>2024-09-23T12:18:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T12:18:50+00:00</t>
+    <t>2024-09-23T18:28:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T18:28:00+00:00</t>
+    <t>2024-09-23T19:43:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T19:43:17+00:00</t>
+    <t>2024-09-23T19:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T19:56:54+00:00</t>
+    <t>2024-09-24T07:39:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T07:39:02+00:00</t>
+    <t>2024-09-25T11:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T11:00:26+00:00</t>
+    <t>2024-09-25T11:40:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T11:40:05+00:00</t>
+    <t>2024-09-25T11:54:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -328,7 +328,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">code
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T11:54:18+00:00</t>
+    <t>2024-09-25T12:57:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T12:57:21+00:00</t>
+    <t>2024-09-25T14:29:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T14:29:33+00:00</t>
+    <t>2024-09-25T14:44:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T14:44:31+00:00</t>
+    <t>2024-09-26T07:10:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:10:34+00:00</t>
+    <t>2024-09-26T07:17:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:17:19+00:00</t>
+    <t>2024-09-26T07:48:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:48:16+00:00</t>
+    <t>2024-09-26T07:51:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:51:13+00:00</t>
+    <t>2024-09-26T08:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T08:50:40+00:00</t>
+    <t>2024-09-26T08:56:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T08:56:22+00:00</t>
+    <t>2024-09-26T09:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T09:55:47+00:00</t>
+    <t>2024-09-26T09:59:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T09:59:14+00:00</t>
+    <t>2024-09-26T10:56:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T10:56:09+00:00</t>
+    <t>2024-09-26T13:32:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T13:32:53+00:00</t>
+    <t>2024-09-26T13:57:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T13:57:34+00:00</t>
+    <t>2024-09-27T07:18:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T07:18:42+00:00</t>
+    <t>2024-09-30T06:58:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T06:58:27+00:00</t>
+    <t>2024-09-30T08:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:02:36+00:00</t>
+    <t>2024-09-30T08:10:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:10:10+00:00</t>
+    <t>2024-09-30T08:14:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:14:13+00:00</t>
+    <t>2024-09-30T08:48:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:48:22+00:00</t>
+    <t>2024-09-30T09:04:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T09:04:34+00:00</t>
+    <t>2024-09-30T10:20:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T10:20:26+00:00</t>
+    <t>2024-09-30T12:24:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T12:24:06+00:00</t>
+    <t>2024-09-30T18:33:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T18:33:40+00:00</t>
+    <t>2024-10-01T09:38:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T09:38:16+00:00</t>
+    <t>2024-10-01T12:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T12:31:57+00:00</t>
+    <t>2024-10-07T08:22:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T08:22:28+00:00</t>
+    <t>2024-10-11T08:15:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T08:15:28+00:00</t>
+    <t>2024-10-11T09:22:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T09:22:23+00:00</t>
+    <t>2024-10-23T07:34:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T07:34:13+00:00</t>
+    <t>2024-10-23T11:03:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T11:03:56+00:00</t>
+    <t>2024-10-24T12:38:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T12:38:05+00:00</t>
+    <t>2024-10-24T13:32:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T13:32:35+00:00</t>
+    <t>2024-10-24T13:59:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T13:59:53+00:00</t>
+    <t>2024-10-24T14:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T14:28:41+00:00</t>
+    <t>2024-10-24T17:45:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T17:45:49+00:00</t>
+    <t>2024-10-24T18:34:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T18:34:10+00:00</t>
+    <t>2024-10-24T19:48:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
